--- a/output/【河洛話注音】短歌行.xlsx
+++ b/output/【河洛話注音】短歌行.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C642AA-F0B5-4D83-B838-AFA757CF5756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2D848C-0F8E-4D71-A86F-F20A38FA7082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F63E8DF6-0552-44DA-9DDB-976E7E630760}"/>
+    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" xr2:uid="{F63E8DF6-0552-44DA-9DDB-976E7E630760}"/>
   </bookViews>
   <sheets>
     <sheet name="雙排注音" sheetId="12" r:id="rId1"/>

--- a/output/【河洛話注音】短歌行.xlsx
+++ b/output/【河洛話注音】短歌行.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2D848C-0F8E-4D71-A86F-F20A38FA7082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A115F6-0CAB-4796-A056-4B4B863196A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" xr2:uid="{F63E8DF6-0552-44DA-9DDB-976E7E630760}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{F63E8DF6-0552-44DA-9DDB-976E7E630760}"/>
   </bookViews>
   <sheets>
     <sheet name="雙排注音" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="1016">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1004,9 +1004,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鹿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lo̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ka&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1355,9 +1352,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鳴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbíng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;î&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;之&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1662,9 +1656,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鳴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bing5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;之&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ci1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -1908,9 +1899,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t>&lt;/p&gt;&lt;p class='author'&gt;</t>
   </si>
   <si>
@@ -2056,9 +2044,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鳴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居七英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;野&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -2257,9 +2242,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄜ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;東&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2402,9 +2384,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鳴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;野&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -2755,9 +2734,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hóng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2786,9 +2762,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2826,9 +2799,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;東&lt;/rb&gt;&lt;rt&gt;tong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2973,9 +2943,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鳴&lt;/rb&gt;&lt;rt&gt;bing5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rt&gt;i7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;野&lt;/rb&gt;&lt;rt&gt;si2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -3151,6 +3118,45 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歸&lt;/rb&gt;&lt;rt&gt;kui1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>sik8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公七喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經八時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆲ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hōng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;se̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sík&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rt&gt;hong7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rt&gt;sik8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
 </sst>
 </file>
@@ -3581,12 +3587,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3596,17 +3602,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>905</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -3616,17 +3622,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -3636,12 +3642,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -3651,22 +3657,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3676,22 +3682,22 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -3701,22 +3707,22 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -3726,22 +3732,22 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -3756,22 +3762,22 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -3781,22 +3787,22 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -3806,22 +3812,22 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -3831,22 +3837,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -3861,22 +3867,22 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -3886,22 +3892,22 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -3911,22 +3917,22 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -3936,22 +3942,22 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -3966,22 +3972,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -3991,22 +3997,22 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>954</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
     </row>
     <row r="87" spans="1:1">
@@ -4016,22 +4022,22 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -4041,22 +4047,22 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -4071,22 +4077,22 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -4096,22 +4102,22 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -4121,22 +4127,22 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -4146,22 +4152,22 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -4176,22 +4182,22 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -4201,22 +4207,22 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -4226,22 +4232,22 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -4251,22 +4257,22 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -4281,22 +4287,22 @@
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -4306,22 +4312,22 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -4331,22 +4337,22 @@
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -4356,22 +4362,22 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
     </row>
     <row r="160" spans="1:1">
@@ -4386,22 +4392,22 @@
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
     </row>
     <row r="166" spans="1:1">
@@ -4411,22 +4417,22 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -4436,22 +4442,22 @@
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
     </row>
     <row r="176" spans="1:1">
@@ -4461,22 +4467,22 @@
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -4657,12 +4663,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4672,17 +4678,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>894</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -4692,17 +4698,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4712,12 +4718,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4727,22 +4733,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -4752,22 +4758,22 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -4777,22 +4783,22 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -4802,22 +4808,22 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -4832,22 +4838,22 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -4857,22 +4863,22 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -4882,22 +4888,22 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -4907,22 +4913,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -4937,22 +4943,22 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -4962,22 +4968,22 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -4987,22 +4993,22 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -5012,22 +5018,22 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -5042,22 +5048,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -5067,22 +5073,22 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>534</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="87" spans="1:1">
@@ -5092,22 +5098,22 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -5117,22 +5123,22 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -5147,22 +5153,22 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -5172,22 +5178,22 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -5197,22 +5203,22 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -5222,22 +5228,22 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -5252,22 +5258,22 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -5277,22 +5283,22 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -5302,22 +5308,22 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -5327,22 +5333,22 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -5357,22 +5363,22 @@
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -5382,22 +5388,22 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -5407,22 +5413,22 @@
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -5432,22 +5438,22 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="160" spans="1:1">
@@ -5462,22 +5468,22 @@
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="1:1">
@@ -5487,22 +5493,22 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -5512,22 +5518,22 @@
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="176" spans="1:1">
@@ -5537,22 +5543,22 @@
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -5589,12 +5595,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -5604,17 +5610,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>886</v>
+        <v>832</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -5624,12 +5630,12 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -5644,12 +5650,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -5659,22 +5665,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -5684,22 +5690,22 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -5709,22 +5715,22 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -5734,22 +5740,22 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -5764,22 +5770,22 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -5789,22 +5795,22 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -5814,22 +5820,22 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -5839,22 +5845,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -5869,22 +5875,22 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -5894,22 +5900,22 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -5919,22 +5925,22 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -5944,22 +5950,22 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -5974,22 +5980,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -5999,22 +6005,22 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>431</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="87" spans="1:1">
@@ -6024,22 +6030,22 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -6049,22 +6055,22 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -6079,22 +6085,22 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -6104,22 +6110,22 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -6129,22 +6135,22 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -6154,22 +6160,22 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -6184,22 +6190,22 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -6209,22 +6215,22 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -6234,22 +6240,22 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -6259,22 +6265,22 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -6289,22 +6295,22 @@
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -6314,22 +6320,22 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -6339,22 +6345,22 @@
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -6364,22 +6370,22 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="160" spans="1:1">
@@ -6394,22 +6400,22 @@
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="166" spans="1:1">
@@ -6419,22 +6425,22 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -6444,22 +6450,22 @@
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="176" spans="1:1">
@@ -6469,22 +6475,22 @@
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -6521,12 +6527,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6536,7 +6542,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -6546,7 +6552,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>839</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -6556,7 +6562,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -6576,12 +6582,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -6591,12 +6597,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -6621,12 +6627,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -6656,7 +6662,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -6676,7 +6682,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -6756,7 +6762,7 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -6781,7 +6787,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -6801,17 +6807,17 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -6851,7 +6857,7 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -6866,7 +6872,7 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -6886,7 +6892,7 @@
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -6921,7 +6927,7 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -6931,22 +6937,22 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>314</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:1">
@@ -6966,12 +6972,12 @@
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -6981,22 +6987,22 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -7011,12 +7017,12 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -7026,7 +7032,7 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -7041,17 +7047,17 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -7066,17 +7072,17 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -7086,22 +7092,22 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -7116,22 +7122,22 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -7141,22 +7147,22 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -7166,22 +7172,22 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -7196,17 +7202,17 @@
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -7221,22 +7227,22 @@
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -7246,22 +7252,22 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -7271,22 +7277,22 @@
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -7301,17 +7307,17 @@
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="160" spans="1:1">
@@ -7326,22 +7332,22 @@
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" spans="1:1">
@@ -7351,22 +7357,22 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -7376,22 +7382,22 @@
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="176" spans="1:1">
@@ -7401,17 +7407,17 @@
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="180" spans="1:1">
@@ -7453,12 +7459,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -7468,7 +7474,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -7478,7 +7484,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>839</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -7488,7 +7494,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -7508,12 +7514,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -7523,12 +7529,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -7553,12 +7559,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -7588,7 +7594,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -7608,7 +7614,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -7688,7 +7694,7 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -7713,7 +7719,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -7733,17 +7739,17 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -7783,7 +7789,7 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -7798,7 +7804,7 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -7818,7 +7824,7 @@
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -7853,7 +7859,7 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -7863,22 +7869,22 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>314</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="87" spans="1:1">
@@ -7898,12 +7904,12 @@
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -7913,22 +7919,22 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -7943,12 +7949,12 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -7958,7 +7964,7 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -7973,17 +7979,17 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -7998,17 +8004,17 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -8018,22 +8024,22 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -8048,22 +8054,22 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -8073,22 +8079,22 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -8098,22 +8104,22 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -8128,17 +8134,17 @@
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -8153,22 +8159,22 @@
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -8178,22 +8184,22 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -8203,22 +8209,22 @@
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -8233,17 +8239,17 @@
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="160" spans="1:1">
@@ -8258,22 +8264,22 @@
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" spans="1:1">
@@ -8283,22 +8289,22 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -8308,22 +8314,22 @@
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="176" spans="1:1">
@@ -8333,17 +8339,17 @@
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="180" spans="1:1">
@@ -8385,12 +8391,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -8400,17 +8406,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>727</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -8420,17 +8426,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -8440,12 +8446,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -8455,22 +8461,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -8480,22 +8486,22 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -8505,22 +8511,22 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -8530,22 +8536,22 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -8560,22 +8566,22 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -8585,22 +8591,22 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -8610,22 +8616,22 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -8635,22 +8641,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -8665,22 +8671,22 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -8690,22 +8696,22 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -8715,22 +8721,22 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -8740,22 +8746,22 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -8770,22 +8776,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -8795,22 +8801,22 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>776</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="87" spans="1:1">
@@ -8820,22 +8826,22 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -8845,22 +8851,22 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -8875,22 +8881,22 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -8900,22 +8906,22 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -8925,22 +8931,22 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -8950,22 +8956,22 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -8980,22 +8986,22 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -9005,22 +9011,22 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -9030,22 +9036,22 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -9055,22 +9061,22 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -9085,22 +9091,22 @@
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -9110,22 +9116,22 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -9135,22 +9141,22 @@
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -9160,22 +9166,22 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
     </row>
     <row r="160" spans="1:1">
@@ -9190,22 +9196,22 @@
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
     </row>
     <row r="166" spans="1:1">
@@ -9215,22 +9221,22 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -9240,22 +9246,22 @@
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
     </row>
     <row r="176" spans="1:1">
@@ -9265,22 +9271,22 @@
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -9317,12 +9323,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -9332,17 +9338,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>613</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -9352,17 +9358,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -9372,12 +9378,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -9387,22 +9393,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -9412,22 +9418,22 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -9437,22 +9443,22 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -9462,22 +9468,22 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -9492,22 +9498,22 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -9517,22 +9523,22 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -9542,22 +9548,22 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -9567,22 +9573,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -9597,22 +9603,22 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -9622,22 +9628,22 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -9647,22 +9653,22 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -9672,22 +9678,22 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -9702,22 +9708,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -9727,22 +9733,22 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>663</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="87" spans="1:1">
@@ -9752,22 +9758,22 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -9777,22 +9783,22 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -9807,22 +9813,22 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -9832,22 +9838,22 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -9857,22 +9863,22 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -9882,22 +9888,22 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -9912,22 +9918,22 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -9937,22 +9943,22 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -9962,22 +9968,22 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -9987,22 +9993,22 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -10017,22 +10023,22 @@
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -10042,22 +10048,22 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -10067,22 +10073,22 @@
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -10092,22 +10098,22 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="160" spans="1:1">
@@ -10122,22 +10128,22 @@
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="166" spans="1:1">
@@ -10147,22 +10153,22 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -10172,22 +10178,22 @@
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="176" spans="1:1">
@@ -10197,22 +10203,22 @@
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -10296,7 +10302,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>589</v>
       </c>
       <c r="C4" t="s">
         <v>145</v>
@@ -10305,7 +10311,7 @@
         <v>146</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -10761,7 +10767,7 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C34" t="s">
         <v>179</v>
@@ -11146,7 +11152,7 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C57" t="s">
         <v>151</v>
@@ -11536,16 +11542,16 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>1003</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="E81">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -11596,7 +11602,7 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C84" t="s">
         <v>275</v>
@@ -11681,7 +11687,7 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C89" t="s">
         <v>275</v>
@@ -11706,7 +11712,7 @@
         <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C91" t="s">
         <v>142</v>
@@ -12051,7 +12057,7 @@
         <v>96</v>
       </c>
       <c r="B112" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C112" t="s">
         <v>275</v>
@@ -12716,13 +12722,13 @@
         <v>123</v>
       </c>
       <c r="B152" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C152" t="s">
         <v>151</v>
       </c>
       <c r="D152" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E152">
         <v>4</v>
@@ -12851,7 +12857,7 @@
         <v>96</v>
       </c>
       <c r="B161" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C161" t="s">
         <v>275</v>
@@ -12936,7 +12942,7 @@
         <v>96</v>
       </c>
       <c r="B166" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C166" t="s">
         <v>275</v>
@@ -13190,13 +13196,13 @@
         <v>4</v>
       </c>
       <c r="B1">
-        <v>7470</v>
+        <v>18964</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>589</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -13207,13 +13213,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>7701</v>
+        <v>19069</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -13224,16 +13230,16 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>18964</v>
+        <v>7470</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>592</v>
+        <v>144</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13241,16 +13247,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>19069</v>
+        <v>7701</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13658,7 +13664,7 @@
         <v>188</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -13672,7 +13678,7 @@
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -13774,7 +13780,7 @@
         <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -13791,7 +13797,7 @@
         <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -13808,7 +13814,7 @@
         <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -13938,16 +13944,16 @@
         <v>81</v>
       </c>
       <c r="B45">
-        <v>15322</v>
+        <v>24067</v>
       </c>
       <c r="C45" t="s">
         <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>1003</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -13955,7 +13961,7 @@
         <v>81</v>
       </c>
       <c r="B46">
-        <v>24067</v>
+        <v>15322</v>
       </c>
       <c r="C46" t="s">
         <v>78</v>
@@ -13995,7 +14001,7 @@
         <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -14233,7 +14239,7 @@
         <v>96</v>
       </c>
       <c r="D62" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E62">
         <v>0.8</v>
@@ -14267,7 +14273,7 @@
         <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -14641,7 +14647,7 @@
         <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E86">
         <v>0.8</v>
@@ -14675,7 +14681,7 @@
         <v>96</v>
       </c>
       <c r="D88" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -14760,7 +14766,7 @@
         <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E93">
         <v>0.8</v>
@@ -14794,7 +14800,7 @@
         <v>96</v>
       </c>
       <c r="D95" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -14896,7 +14902,7 @@
         <v>130</v>
       </c>
       <c r="D101" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E101">
         <v>0</v>
